--- a/data/cri_margins.xlsx
+++ b/data/cri_margins.xlsx
@@ -17982,23 +17982,23 @@
       <c r="C347" t="n">
         <v>346.0</v>
       </c>
-      <c r="D347" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E347" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F347" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G347" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H347" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I347" t="e">
-        <v>#N/A</v>
+      <c r="D347" t="n">
+        <v>-0.0015</v>
+      </c>
+      <c r="E347" t="n">
+        <v>-0.01137</v>
+      </c>
+      <c r="F347" t="n">
+        <v>0.00837</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.00987</v>
+      </c>
+      <c r="H347" t="n">
+        <v>-0.29762</v>
+      </c>
+      <c r="I347" t="n">
+        <v>0.76599</v>
       </c>
     </row>
     <row r="348">
@@ -18011,23 +18011,23 @@
       <c r="C348" t="n">
         <v>347.0</v>
       </c>
-      <c r="D348" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E348" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F348" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G348" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H348" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I348" t="e">
-        <v>#N/A</v>
+      <c r="D348" t="n">
+        <v>5.0E-4</v>
+      </c>
+      <c r="E348" t="n">
+        <v>-0.0208</v>
+      </c>
+      <c r="F348" t="n">
+        <v>0.0218</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.0213</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0.96331</v>
       </c>
     </row>
     <row r="349">
@@ -18040,23 +18040,23 @@
       <c r="C349" t="n">
         <v>348.0</v>
       </c>
-      <c r="D349" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E349" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F349" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G349" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H349" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I349" t="e">
-        <v>#N/A</v>
+      <c r="D349" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="E349" t="n">
+        <v>-0.01373</v>
+      </c>
+      <c r="F349" t="n">
+        <v>0.00773</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.01073</v>
+      </c>
+      <c r="H349" t="n">
+        <v>-0.54845</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0.58338</v>
       </c>
     </row>
     <row r="350">
@@ -18069,23 +18069,23 @@
       <c r="C350" t="n">
         <v>349.0</v>
       </c>
-      <c r="D350" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E350" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F350" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G350" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H350" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I350" t="e">
-        <v>#N/A</v>
+      <c r="D350" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0.00127</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0.03873</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.01873</v>
+      </c>
+      <c r="H350" t="n">
+        <v>2.09205</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0.03643</v>
       </c>
     </row>
     <row r="351">
@@ -18098,23 +18098,23 @@
       <c r="C351" t="n">
         <v>350.0</v>
       </c>
-      <c r="D351" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E351" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F351" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G351" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H351" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I351" t="e">
-        <v>#N/A</v>
+      <c r="D351" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="E351" t="n">
+        <v>-0.07174</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0.07674</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.07424</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0.94738</v>
       </c>
     </row>
     <row r="352">
@@ -18127,23 +18127,23 @@
       <c r="C352" t="n">
         <v>351.0</v>
       </c>
-      <c r="D352" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E352" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F352" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G352" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H352" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I352" t="e">
-        <v>#N/A</v>
+      <c r="D352" t="n">
+        <v>-0.0945</v>
+      </c>
+      <c r="E352" t="n">
+        <v>-0.17151</v>
+      </c>
+      <c r="F352" t="n">
+        <v>-0.01749</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.07701</v>
+      </c>
+      <c r="H352" t="n">
+        <v>-2.40519</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0.01616</v>
       </c>
     </row>
     <row r="353">
@@ -18156,23 +18156,23 @@
       <c r="C353" t="n">
         <v>352.0</v>
       </c>
-      <c r="D353" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E353" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F353" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G353" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H353" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I353" t="e">
-        <v>#N/A</v>
+      <c r="D353" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="E353" t="n">
+        <v>-0.05732</v>
+      </c>
+      <c r="F353" t="n">
+        <v>0.02532</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04132</v>
+      </c>
+      <c r="H353" t="n">
+        <v>-0.75901</v>
+      </c>
+      <c r="I353" t="n">
+        <v>0.44785</v>
       </c>
     </row>
     <row r="354">
@@ -18185,23 +18185,23 @@
       <c r="C354" t="n">
         <v>353.0</v>
       </c>
-      <c r="D354" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E354" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F354" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G354" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H354" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I354" t="e">
-        <v>#N/A</v>
+      <c r="D354" t="n">
+        <v>0.1735</v>
+      </c>
+      <c r="E354" t="n">
+        <v>0.01415</v>
+      </c>
+      <c r="F354" t="n">
+        <v>0.33285</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.15935</v>
+      </c>
+      <c r="H354" t="n">
+        <v>2.13407</v>
+      </c>
+      <c r="I354" t="n">
+        <v>0.03284</v>
       </c>
     </row>
     <row r="355">

--- a/data/cri_margins.xlsx
+++ b/data/cri_margins.xlsx
@@ -12937,22 +12937,22 @@
         <v>172.0</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.02708</v>
+        <v>-0.02917</v>
       </c>
       <c r="E173" t="n">
-        <v>-0.05208</v>
+        <v>-0.05833</v>
       </c>
       <c r="F173" t="n">
-        <v>-1.0E-5</v>
+        <v>-0.001</v>
       </c>
       <c r="G173" t="n">
-        <v>0.025</v>
+        <v>0.02916</v>
       </c>
       <c r="H173" t="n">
-        <v>-2.03916</v>
+        <v>-1.99385</v>
       </c>
       <c r="I173" t="n">
-        <v>0.04143</v>
+        <v>0.04617</v>
       </c>
     </row>
     <row r="174">
@@ -12966,22 +12966,22 @@
         <v>173.0</v>
       </c>
       <c r="D174" t="n">
-        <v>0.17292</v>
+        <v>0.24375</v>
       </c>
       <c r="E174" t="n">
-        <v>-0.475</v>
+        <v>-0.60625</v>
       </c>
       <c r="F174" t="n">
-        <v>0.85417</v>
+        <v>1.01458</v>
       </c>
       <c r="G174" t="n">
-        <v>0.6479199999999999</v>
+        <v>0.85</v>
       </c>
       <c r="H174" t="n">
-        <v>0.50998</v>
+        <v>0.58951</v>
       </c>
       <c r="I174" t="n">
-        <v>0.61007</v>
+        <v>0.55552</v>
       </c>
     </row>
     <row r="175">
